--- a/zero-is/src/main/resources/plugin/is/oob/cab/i.message.xlsx
+++ b/zero-is/src/main/resources/plugin/is/oob/cab/i.message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-is/src/main/resources/plugin/is/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4340AD3-932B-AF4B-9ADF-40191FF2B028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540CE332-440B-574D-A0B6-57B5084192F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-48100" yWindow="-3600" windowWidth="41120" windowHeight="25700" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>key</t>
   </si>
@@ -219,9 +219,6 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>perm.message.status</t>
-  </si>
-  <si>
     <t>集成管理/消息提醒</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
   </si>
   <si>
     <t>act.message.by.type</t>
-  </si>
-  <si>
-    <t>perm.message.by.type</t>
   </si>
   <si>
     <t>/api/message/:key/:status</t>
@@ -278,6 +272,69 @@
   </si>
   <si>
     <t>daabcd82-6ccb-40d2-9887-402e7d347e5a</t>
+  </si>
+  <si>
+    <t>perm.message.fetch</t>
+  </si>
+  <si>
+    <t>953fdd37-7ec5-4d16-a605-2c5ecf7ae3e4</t>
+  </si>
+  <si>
+    <t>perm.message.delete</t>
+  </si>
+  <si>
+    <t>31d15959-7cf8-44e9-bbc0-57d90a91568f</t>
+  </si>
+  <si>
+    <t>个人消息删除</t>
+  </si>
+  <si>
+    <t>8c27d531-bc05-46f0-a268-4931a3f6348d</t>
+  </si>
+  <si>
+    <t>res.message.delete</t>
+  </si>
+  <si>
+    <t>c5b7ade9-e8fc-4e3c-829a-b714437ff15c</t>
+  </si>
+  <si>
+    <t>个人消息添加</t>
+  </si>
+  <si>
+    <t>res.message.add</t>
+  </si>
+  <si>
+    <t>resource.integration</t>
+  </si>
+  <si>
+    <t>a24197db-f864-48ed-a7d4-ed8c16da328f</t>
+  </si>
+  <si>
+    <t>34861773-a8ae-4fe5-a363-8491070fed72</t>
+  </si>
+  <si>
+    <t>act.message.add</t>
+  </si>
+  <si>
+    <t>act.message.delete</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/api/message</t>
+  </si>
+  <si>
+    <t>/api/message/batch</t>
+  </si>
+  <si>
+    <t>个人消息保存</t>
+  </si>
+  <si>
+    <t>perm.message.save</t>
   </si>
 </sst>
 </file>
@@ -901,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:I30"/>
+  <dimension ref="A3:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -963,13 +1020,13 @@
     </row>
     <row r="6" spans="1:7" s="20" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>52</v>
@@ -977,102 +1034,97 @@
     </row>
     <row r="7" spans="1:7" s="20" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:7" s="20" customFormat="1">
+      <c r="A8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>39</v>
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>53</v>
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>53</v>
@@ -1080,271 +1132,417 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="13" t="str">
-        <f t="shared" ref="B21:B22" si="0">A29</f>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f t="shared" ref="B23:B26" si="0">A33</f>
         <v>e9ff59bf-c6c9-45ca-b602-782f103060ac</v>
       </c>
-      <c r="C21" s="13" t="str">
-        <f>A13</f>
+      <c r="C23" s="13" t="str">
+        <f>A14</f>
         <v>d0f6be3b-491a-4de3-9046-529ce956207b</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="11" t="str">
-        <f>B13</f>
+      <c r="F23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f>B14</f>
         <v>个人消息读取</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H23" s="11">
         <v>1</v>
       </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="13" t="str">
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>daabcd82-6ccb-40d2-9887-402e7d347e5a</v>
       </c>
-      <c r="C22" s="13" t="str">
-        <f>A14</f>
+      <c r="C24" s="13" t="str">
+        <f>A15</f>
         <v>41c2f493-c073-4a30-9a9d-d6d33449d3da</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f>B15</f>
+        <v>个人消息保存</v>
+      </c>
+      <c r="H24" s="11">
+        <v>8</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>c5b7ade9-e8fc-4e3c-829a-b714437ff15c</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>A15</f>
+        <v>41c2f493-c073-4a30-9a9d-d6d33449d3da</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="11">
+        <v>4</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>8c27d531-bc05-46f0-a268-4931a3f6348d</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>A16</f>
+        <v>31d15959-7cf8-44e9-bbc0-57d90a91568f</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="11">
+        <v>12</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="11" t="str">
-        <f>B14</f>
-        <v>个人消息阅读</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="E34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="11">
         <v>8</v>
       </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="11">
+        <v>4</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="11">
         <v>12</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="11">
-        <v>8</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/zero-is/src/main/resources/plugin/is/oob/cab/i.message.xlsx
+++ b/zero-is/src/main/resources/plugin/is/oob/cab/i.message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-is/src/main/resources/plugin/is/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540CE332-440B-574D-A0B6-57B5084192F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B4999-DE8F-BE47-A90E-83C819057AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-48100" yWindow="-3600" windowWidth="41120" windowHeight="25700" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>act.message.status</t>
   </si>
   <si>
-    <t>/api/message/by/:type</t>
-  </si>
-  <si>
     <t>act.message.by.type</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>perm.message.save</t>
+  </si>
+  <si>
+    <t>/api/message/type/:type</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
   <dimension ref="A3:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="6" spans="1:7" s="20" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>56</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="7" spans="1:7" s="20" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>56</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="8" spans="1:7" s="20" customFormat="1">
       <c r="A8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>56</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>57</v>
@@ -1124,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>53</v>
@@ -1134,16 +1134,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>53</v>
@@ -1153,16 +1153,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>53</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="13" t="str">
         <f t="shared" ref="B23:B26" si="0">A33</f>
@@ -1258,13 +1258,13 @@
         <v>d0f6be3b-491a-4de3-9046-529ce956207b</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G23" s="11" t="str">
         <f>B14</f>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="11" t="str">
         <f>B15</f>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1318,16 +1318,16 @@
         <v>41c2f493-c073-4a30-9a9d-d6d33449d3da</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="11">
         <v>4</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1347,16 +1347,16 @@
         <v>31d15959-7cf8-44e9-bbc0-57d90a91568f</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H26" s="11">
         <v>12</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>57</v>
@@ -1449,13 +1449,13 @@
         <v>37</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>58</v>
@@ -1474,13 +1474,13 @@
         <v>37</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="11">
         <v>8</v>
@@ -1490,22 +1490,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="11">
         <v>4</v>
@@ -1515,22 +1515,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="11">
         <v>12</v>

--- a/zero-is/src/main/resources/plugin/is/oob/cab/i.message.xlsx
+++ b/zero-is/src/main/resources/plugin/is/oob/cab/i.message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-is/src/main/resources/plugin/is/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2B4999-DE8F-BE47-A90E-83C819057AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F72A49-368B-5B43-AA6E-628394BA5328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-48100" yWindow="-3600" windowWidth="41120" windowHeight="25700" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>act.message.by.type</t>
   </si>
   <si>
-    <t>/api/message/:key/:status</t>
-  </si>
-  <si>
     <t>res.message.by.type</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>/api/message/type/:type</t>
+  </si>
+  <si>
+    <t>/api/message/batch/:status</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
   <dimension ref="A3:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="6" spans="1:7" s="20" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>56</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="7" spans="1:7" s="20" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>56</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="8" spans="1:7" s="20" customFormat="1">
       <c r="A8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>75</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>56</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>57</v>
@@ -1124,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>53</v>
@@ -1134,16 +1134,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>53</v>
@@ -1153,16 +1153,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>53</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="13" t="str">
         <f t="shared" ref="B23:B26" si="0">A33</f>
@@ -1264,7 +1264,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="11" t="str">
         <f>B14</f>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G24" s="11" t="str">
         <f>B15</f>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1318,16 +1318,16 @@
         <v>41c2f493-c073-4a30-9a9d-d6d33449d3da</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="11">
         <v>4</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1347,16 +1347,16 @@
         <v>31d15959-7cf8-44e9-bbc0-57d90a91568f</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="11">
         <v>12</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>57</v>
@@ -1449,13 +1449,13 @@
         <v>37</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>58</v>
@@ -1474,13 +1474,13 @@
         <v>37</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="11">
         <v>8</v>
@@ -1490,22 +1490,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" s="11">
         <v>4</v>
@@ -1515,22 +1515,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="11">
         <v>12</v>
